--- a/trackers-and-planning/cloud-foundations-accelerator/cfa_tagging-dictionary.xlsx
+++ b/trackers-and-planning/cloud-foundations-accelerator/cfa_tagging-dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awstodd/unCode/Gits/GITHUB-CloudFoundations/cloud-foundations-templates/trackers-and-planning/cloud-foundations-accelerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2C7C55A-7D2E-BB4B-846A-297557270524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0FD8A1E-E070-9845-8B20-3AD7E0252219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,8 +551,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -687,6 +699,206 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -737,7 +949,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -747,14 +959,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1111,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C5BE66-08D2-284D-98B7-FAA5FD31FBA9}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,108 +1367,106 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B21:D29"/>
+    <mergeCell ref="B13:D21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" location="'Example Tag Dictionary'!A1" display="Example Tag Dictionary" xr:uid="{E38C5235-C12B-114B-BCAE-D3BB946A68CC}"/>
+    <hyperlink ref="B22" location="'Example Tag Dictionary'!A1" display="Example Tag Dictionary" xr:uid="{E38C5235-C12B-114B-BCAE-D3BB946A68CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1257,12 +1492,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
